--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H2">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I2">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J2">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N2">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O2">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P2">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q2">
-        <v>5.315922439943523</v>
+        <v>0.5090796114111111</v>
       </c>
       <c r="R2">
-        <v>5.315922439943523</v>
+        <v>4.5817165027</v>
       </c>
       <c r="S2">
-        <v>0.03263987003422356</v>
+        <v>0.002538655761883128</v>
       </c>
       <c r="T2">
-        <v>0.03263987003422356</v>
+        <v>0.002904716561196677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H3">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I3">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J3">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N3">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P3">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q3">
-        <v>30.57624389380391</v>
+        <v>2.644206613973555</v>
       </c>
       <c r="R3">
-        <v>30.57624389380391</v>
+        <v>23.797859525762</v>
       </c>
       <c r="S3">
-        <v>0.1877387486562133</v>
+        <v>0.01318601296478268</v>
       </c>
       <c r="T3">
-        <v>0.1877387486562133</v>
+        <v>0.01508736663317712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H4">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I4">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J4">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N4">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O4">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P4">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q4">
-        <v>21.7349147402272</v>
+        <v>2.006270773560445</v>
       </c>
       <c r="R4">
-        <v>21.7349147402272</v>
+        <v>18.056436962044</v>
       </c>
       <c r="S4">
-        <v>0.1334528109355716</v>
+        <v>0.01000478264112578</v>
       </c>
       <c r="T4">
-        <v>0.1334528109355716</v>
+        <v>0.01144741964042188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H5">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I5">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J5">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N5">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O5">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P5">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q5">
-        <v>15.68190718207087</v>
+        <v>1.332491576982666</v>
       </c>
       <c r="R5">
-        <v>15.68190718207087</v>
+        <v>11.992424192844</v>
       </c>
       <c r="S5">
-        <v>0.09628722354289809</v>
+        <v>0.006644810249208794</v>
       </c>
       <c r="T5">
-        <v>0.09628722354289809</v>
+        <v>0.007602956913925527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H6">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I6">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J6">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N6">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O6">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P6">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q6">
-        <v>37.37374939303879</v>
+        <v>3.165831172012666</v>
       </c>
       <c r="R6">
-        <v>37.37374939303879</v>
+        <v>18.994987032076</v>
       </c>
       <c r="S6">
-        <v>0.2294755682878976</v>
+        <v>0.01578722731342872</v>
       </c>
       <c r="T6">
-        <v>0.2294755682878976</v>
+        <v>0.01204244160005812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.552723745214293</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H7">
-        <v>0.552723745214293</v>
+        <v>16.311022</v>
       </c>
       <c r="I7">
-        <v>0.07674329429648538</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J7">
-        <v>0.07674329429648538</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N7">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O7">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P7">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q7">
-        <v>0.600301455464637</v>
+        <v>6.676010687811112</v>
       </c>
       <c r="R7">
-        <v>0.600301455464637</v>
+        <v>60.08409619030001</v>
       </c>
       <c r="S7">
-        <v>0.003685862935187813</v>
+        <v>0.03329163576601865</v>
       </c>
       <c r="T7">
-        <v>0.003685862935187813</v>
+        <v>0.03809211442166924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.552723745214293</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H8">
-        <v>0.552723745214293</v>
+        <v>16.311022</v>
       </c>
       <c r="I8">
-        <v>0.07674329429648538</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J8">
-        <v>0.07674329429648538</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N8">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P8">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q8">
-        <v>3.45282759849431</v>
+        <v>34.67581733775756</v>
       </c>
       <c r="R8">
-        <v>3.45282759849431</v>
+        <v>312.082356039818</v>
       </c>
       <c r="S8">
-        <v>0.02120043046877709</v>
+        <v>0.1729198371125019</v>
       </c>
       <c r="T8">
-        <v>0.02120043046877709</v>
+        <v>0.1978539675058314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.552723745214293</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H9">
-        <v>0.552723745214293</v>
+        <v>16.311022</v>
       </c>
       <c r="I9">
-        <v>0.07674329429648538</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J9">
-        <v>0.07674329429648538</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N9">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O9">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P9">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q9">
-        <v>2.454418983791042</v>
+        <v>26.31000108176845</v>
       </c>
       <c r="R9">
-        <v>2.454418983791042</v>
+        <v>236.790009735916</v>
       </c>
       <c r="S9">
-        <v>0.01507018161862456</v>
+        <v>0.1312015534392408</v>
       </c>
       <c r="T9">
-        <v>0.01507018161862456</v>
+        <v>0.1501201269001505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.552723745214293</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H10">
-        <v>0.552723745214293</v>
+        <v>16.311022</v>
       </c>
       <c r="I10">
-        <v>0.07674329429648538</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J10">
-        <v>0.07674329429648538</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N10">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O10">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P10">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q10">
-        <v>1.770882064629691</v>
+        <v>17.47413923079067</v>
       </c>
       <c r="R10">
-        <v>1.770882064629691</v>
+        <v>157.267253077116</v>
       </c>
       <c r="S10">
-        <v>0.01087325127265489</v>
+        <v>0.08713926711626016</v>
       </c>
       <c r="T10">
-        <v>0.01087325127265489</v>
+        <v>0.09970429079970494</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.552723745214293</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H11">
-        <v>0.552723745214293</v>
+        <v>16.311022</v>
       </c>
       <c r="I11">
-        <v>0.07674329429648538</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J11">
-        <v>0.07674329429648538</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N11">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O11">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P11">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q11">
-        <v>4.220437075648932</v>
+        <v>41.51634099346067</v>
       </c>
       <c r="R11">
-        <v>4.220437075648932</v>
+        <v>249.098045960764</v>
       </c>
       <c r="S11">
-        <v>0.02591356800124104</v>
+        <v>0.2070318588937567</v>
       </c>
       <c r="T11">
-        <v>0.02591356800124104</v>
+        <v>0.1579231755254979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.35977885386842</v>
+        <v>0.642813</v>
       </c>
       <c r="H12">
-        <v>1.35977885386842</v>
+        <v>1.928439</v>
       </c>
       <c r="I12">
-        <v>0.1887993951121158</v>
+        <v>0.0746716858778578</v>
       </c>
       <c r="J12">
-        <v>0.1887993951121158</v>
+        <v>0.07610338501279039</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N12">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O12">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P12">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q12">
-        <v>1.476826773148266</v>
+        <v>0.78929936915</v>
       </c>
       <c r="R12">
-        <v>1.476826773148266</v>
+        <v>7.10369432235</v>
       </c>
       <c r="S12">
-        <v>0.00906774590547511</v>
+        <v>0.003936043295446799</v>
       </c>
       <c r="T12">
-        <v>0.00906774590547511</v>
+        <v>0.004503600022316774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.35977885386842</v>
+        <v>0.642813</v>
       </c>
       <c r="H13">
-        <v>1.35977885386842</v>
+        <v>1.928439</v>
       </c>
       <c r="I13">
-        <v>0.1887993951121158</v>
+        <v>0.0746716858778578</v>
       </c>
       <c r="J13">
-        <v>0.1887993951121158</v>
+        <v>0.07610338501279039</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N13">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O13">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P13">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q13">
-        <v>8.494445905640513</v>
+        <v>4.099693968348999</v>
       </c>
       <c r="R13">
-        <v>8.494445905640513</v>
+        <v>36.897245715141</v>
       </c>
       <c r="S13">
-        <v>0.05215606764492117</v>
+        <v>0.02044417313405597</v>
       </c>
       <c r="T13">
-        <v>0.05215606764492117</v>
+        <v>0.02339211529743372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.35977885386842</v>
+        <v>0.642813</v>
       </c>
       <c r="H14">
-        <v>1.35977885386842</v>
+        <v>1.928439</v>
       </c>
       <c r="I14">
-        <v>0.1887993951121158</v>
+        <v>0.0746716858778578</v>
       </c>
       <c r="J14">
-        <v>0.1887993951121158</v>
+        <v>0.07610338501279039</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N14">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O14">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P14">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q14">
-        <v>6.038219022774799</v>
+        <v>3.110610247238</v>
       </c>
       <c r="R14">
-        <v>6.038219022774799</v>
+        <v>27.995492225142</v>
       </c>
       <c r="S14">
-        <v>0.03707478548984242</v>
+        <v>0.01551185404034253</v>
       </c>
       <c r="T14">
-        <v>0.03707478548984242</v>
+        <v>0.01774858175037709</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.35977885386842</v>
+        <v>0.642813</v>
       </c>
       <c r="H15">
-        <v>1.35977885386842</v>
+        <v>1.928439</v>
       </c>
       <c r="I15">
-        <v>0.1887993951121158</v>
+        <v>0.0746716858778578</v>
       </c>
       <c r="J15">
-        <v>0.1887993951121158</v>
+        <v>0.07610338501279039</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N15">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O15">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P15">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q15">
-        <v>4.356621196443639</v>
+        <v>2.065953413837999</v>
       </c>
       <c r="R15">
-        <v>4.356621196443639</v>
+        <v>18.593580724542</v>
       </c>
       <c r="S15">
-        <v>0.02674974122492552</v>
+        <v>0.01030240540037366</v>
       </c>
       <c r="T15">
-        <v>0.02674974122492552</v>
+        <v>0.01178795803509383</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.35977885386842</v>
+        <v>0.642813</v>
       </c>
       <c r="H16">
-        <v>1.35977885386842</v>
+        <v>1.928439</v>
       </c>
       <c r="I16">
-        <v>0.1887993951121158</v>
+        <v>0.0746716858778578</v>
       </c>
       <c r="J16">
-        <v>0.1887993951121158</v>
+        <v>0.07610338501279039</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N16">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O16">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P16">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q16">
-        <v>10.38287415592162</v>
+        <v>4.908443573253</v>
       </c>
       <c r="R16">
-        <v>10.38287415592162</v>
+        <v>29.450661439518</v>
       </c>
       <c r="S16">
-        <v>0.06375105484695161</v>
+        <v>0.02447721000763883</v>
       </c>
       <c r="T16">
-        <v>0.06375105484695161</v>
+        <v>0.01867112990756898</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.395137221805286</v>
+        <v>1.628259333333334</v>
       </c>
       <c r="H17">
-        <v>0.395137221805286</v>
+        <v>4.884778000000001</v>
       </c>
       <c r="I17">
-        <v>0.05486308913459455</v>
+        <v>0.1891450071270445</v>
       </c>
       <c r="J17">
-        <v>0.05486308913459455</v>
+        <v>0.1927715322268468</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N17">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O17">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P17">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q17">
-        <v>0.4291500978775616</v>
+        <v>1.999312497744445</v>
       </c>
       <c r="R17">
-        <v>0.4291500978775616</v>
+        <v>17.9938124797</v>
       </c>
       <c r="S17">
-        <v>0.002634990178684162</v>
+        <v>0.009970083418063016</v>
       </c>
       <c r="T17">
-        <v>0.002634990178684162</v>
+        <v>0.01140771697202374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.395137221805286</v>
+        <v>1.628259333333334</v>
       </c>
       <c r="H18">
-        <v>0.395137221805286</v>
+        <v>4.884778000000001</v>
       </c>
       <c r="I18">
-        <v>0.05486308913459455</v>
+        <v>0.1891450071270445</v>
       </c>
       <c r="J18">
-        <v>0.05486308913459455</v>
+        <v>0.1927715322268468</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N18">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O18">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P18">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q18">
-        <v>2.468395317651315</v>
+        <v>10.38461413782022</v>
       </c>
       <c r="R18">
-        <v>2.468395317651315</v>
+        <v>93.461527240382</v>
       </c>
       <c r="S18">
-        <v>0.01515599658788115</v>
+        <v>0.05178553594561595</v>
       </c>
       <c r="T18">
-        <v>0.01515599658788115</v>
+        <v>0.05925273766936248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.395137221805286</v>
+        <v>1.628259333333334</v>
       </c>
       <c r="H19">
-        <v>0.395137221805286</v>
+        <v>4.884778000000001</v>
       </c>
       <c r="I19">
-        <v>0.05486308913459455</v>
+        <v>0.1891450071270445</v>
       </c>
       <c r="J19">
-        <v>0.05486308913459455</v>
+        <v>0.1927715322268468</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N19">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O19">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P19">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q19">
-        <v>1.754642001177891</v>
+        <v>7.87924352405378</v>
       </c>
       <c r="R19">
-        <v>1.754642001177891</v>
+        <v>70.91319171648402</v>
       </c>
       <c r="S19">
-        <v>0.0107735369584596</v>
+        <v>0.03929186422566455</v>
       </c>
       <c r="T19">
-        <v>0.0107735369584596</v>
+        <v>0.04495754424456441</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.395137221805286</v>
+        <v>1.628259333333334</v>
       </c>
       <c r="H20">
-        <v>0.395137221805286</v>
+        <v>4.884778000000001</v>
       </c>
       <c r="I20">
-        <v>0.05486308913459455</v>
+        <v>0.1891450071270445</v>
       </c>
       <c r="J20">
-        <v>0.05486308913459455</v>
+        <v>0.1927715322268468</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N20">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O20">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P20">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q20">
-        <v>1.26598762079833</v>
+        <v>5.233105006142666</v>
       </c>
       <c r="R20">
-        <v>1.26598762079833</v>
+        <v>47.097945055284</v>
       </c>
       <c r="S20">
-        <v>0.007773189295860454</v>
+        <v>0.02609621732749984</v>
       </c>
       <c r="T20">
-        <v>0.007773189295860454</v>
+        <v>0.02985915451551725</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.628259333333334</v>
+      </c>
+      <c r="H21">
+        <v>4.884778000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1891450071270445</v>
+      </c>
+      <c r="J21">
+        <v>0.1927715322268468</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N21">
+        <v>15.271762</v>
+      </c>
+      <c r="O21">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P21">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q21">
+        <v>12.43319450647267</v>
+      </c>
+      <c r="R21">
+        <v>74.599167038836</v>
+      </c>
+      <c r="S21">
+        <v>0.06200130621020111</v>
+      </c>
+      <c r="T21">
+        <v>0.04729437882537896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.485845</v>
+      </c>
+      <c r="H22">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J22">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.227883333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.68365</v>
+      </c>
+      <c r="O22">
+        <v>0.05271132222573729</v>
+      </c>
+      <c r="P22">
+        <v>0.05917739429803119</v>
+      </c>
+      <c r="Q22">
+        <v>0.5965609780833333</v>
+      </c>
+      <c r="R22">
+        <v>3.5793658685</v>
+      </c>
+      <c r="S22">
+        <v>0.00297490398432569</v>
+      </c>
+      <c r="T22">
+        <v>0.002269246320824764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.485845</v>
+      </c>
+      <c r="H23">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J23">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.377739666666666</v>
+      </c>
+      <c r="N23">
+        <v>19.133219</v>
+      </c>
+      <c r="O23">
+        <v>0.2737874857612962</v>
+      </c>
+      <c r="P23">
+        <v>0.3073728625014814</v>
+      </c>
+      <c r="Q23">
+        <v>3.098592928351666</v>
+      </c>
+      <c r="R23">
+        <v>18.59155757010999</v>
+      </c>
+      <c r="S23">
+        <v>0.01545192660433971</v>
+      </c>
+      <c r="T23">
+        <v>0.0117866753956767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.485845</v>
+      </c>
+      <c r="H24">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J24">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.839059333333334</v>
+      </c>
+      <c r="N24">
+        <v>14.517178</v>
+      </c>
+      <c r="O24">
+        <v>0.2077340809703377</v>
+      </c>
+      <c r="P24">
+        <v>0.2332167189067104</v>
+      </c>
+      <c r="Q24">
+        <v>2.351032781803334</v>
+      </c>
+      <c r="R24">
+        <v>14.10619669082</v>
+      </c>
+      <c r="S24">
+        <v>0.01172402662396407</v>
+      </c>
+      <c r="T24">
+        <v>0.008943046371196559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.395137221805286</v>
-      </c>
-      <c r="H21">
-        <v>0.395137221805286</v>
-      </c>
-      <c r="I21">
-        <v>0.05486308913459455</v>
-      </c>
-      <c r="J21">
-        <v>0.05486308913459455</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.63570791410934</v>
-      </c>
-      <c r="N21">
-        <v>7.63570791410934</v>
-      </c>
-      <c r="O21">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="P21">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="Q21">
-        <v>3.0171524116978</v>
-      </c>
-      <c r="R21">
-        <v>3.0171524116978</v>
-      </c>
-      <c r="S21">
-        <v>0.01852537611370918</v>
-      </c>
-      <c r="T21">
-        <v>0.01852537611370918</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.485845</v>
+      </c>
+      <c r="H25">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J25">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.213925999999999</v>
+      </c>
+      <c r="N25">
+        <v>9.641777999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1379693692362262</v>
+      </c>
+      <c r="P25">
+        <v>0.1548940041643702</v>
+      </c>
+      <c r="Q25">
+        <v>1.56146987747</v>
+      </c>
+      <c r="R25">
+        <v>9.368819264819997</v>
+      </c>
+      <c r="S25">
+        <v>0.007786669142883764</v>
+      </c>
+      <c r="T25">
+        <v>0.005939643900128716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.485845</v>
+      </c>
+      <c r="H26">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J26">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N26">
+        <v>15.271762</v>
+      </c>
+      <c r="O26">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P26">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q26">
+        <v>3.709854604444999</v>
+      </c>
+      <c r="R26">
+        <v>14.83941841778</v>
+      </c>
+      <c r="S26">
+        <v>0.0185001393813773</v>
+      </c>
+      <c r="T26">
+        <v>0.00940789427090289</v>
       </c>
     </row>
   </sheetData>
